--- a/docs/source/_static/structure/IFDAT_TEMPLATE.xlsx
+++ b/docs/source/_static/structure/IFDAT_TEMPLATE.xlsx
@@ -55,36 +55,36 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.ODR_" sheetId="46" state="hidden" r:id="rId46"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.DPST" sheetId="47" state="visible" r:id="rId47"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.DPST_" sheetId="48" state="hidden" r:id="rId48"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST.SFT" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST.SFT_" sheetId="50" state="hidden" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST.DBT" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST.DBT_" sheetId="52" state="hidden" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST.LN" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST.LN_" sheetId="54" state="hidden" r:id="rId54"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_" sheetId="56" state="hidden" r:id="rId56"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EDR" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EDR_" sheetId="58" state="hidden" r:id="rId58"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODR" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODR_" sheetId="60" state="hidden" r:id="rId60"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST.NN_FNNCL" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST.NN_FNNCL_" sheetId="62" state="hidden" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST.RMNNG" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST.RMNNG_" sheetId="64" state="hidden" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LBLTY.SFT" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LBLTY.SFT_" sheetId="66" state="hidden" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LBLTY.DBT" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LBLTY.DBT_" sheetId="68" state="hidden" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LBLTY.LN" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LBLTY.LN_" sheetId="70" state="hidden" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LBLTY.RMNNG" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LBLTY.RMNNG_" sheetId="72" state="hidden" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HLDR" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HLDR_" sheetId="74" state="hidden" r:id="rId74"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RVN" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RVN_" sheetId="76" state="hidden" r:id="rId76"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EXPNS" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EXPNS_" sheetId="78" state="hidden" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_SFT" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_SFT_" sheetId="50" state="hidden" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_DBT" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_DBT_" sheetId="52" state="hidden" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_LN" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_LN_" sheetId="54" state="hidden" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.SHR" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.SHR_" sheetId="56" state="hidden" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.EDR" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.EDR_" sheetId="58" state="hidden" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ODR" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ODR_" sheetId="60" state="hidden" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_NN_FNNCL" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_NN_FNNCL_" sheetId="62" state="hidden" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_RMNNG" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_RMNNG_" sheetId="64" state="hidden" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_SFT" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_SFT_" sheetId="66" state="hidden" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_DBT" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_DBT_" sheetId="68" state="hidden" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_LN" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_LN_" sheetId="70" state="hidden" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_RMNNG" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_RMNNG_" sheetId="72" state="hidden" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.HLDR" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.HLDR_" sheetId="74" state="hidden" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.RVN" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.RVN_" sheetId="76" state="hidden" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.EXPNS" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.EXPNS_" sheetId="78" state="hidden" r:id="rId78"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CONTENTS'!$A$1:$B$39</definedName>
@@ -19986,105 +19986,105 @@
     </row>
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="5">
-        <f>HYPERLINK("#ASST.SFT!A1", "ASST.SFT")</f>
+        <f>HYPERLINK("#ACC.ASST_SFT!A1", "ACC.ASST_SFT")</f>
         <v/>
       </c>
       <c r="B25" s="2" t="inlineStr"/>
     </row>
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3">
-        <f>HYPERLINK("#ASST.DBT!A1", "ASST.DBT")</f>
+        <f>HYPERLINK("#ACC.ASST_DBT!A1", "ACC.ASST_DBT")</f>
         <v/>
       </c>
       <c r="B26" s="4" t="inlineStr"/>
     </row>
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="5">
-        <f>HYPERLINK("#ASST.LN!A1", "ASST.LN")</f>
+        <f>HYPERLINK("#ACC.ASST_LN!A1", "ACC.ASST_LN")</f>
         <v/>
       </c>
       <c r="B27" s="2" t="inlineStr"/>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3">
-        <f>HYPERLINK("#SHR!A1", "SHR")</f>
+        <f>HYPERLINK("#ACC.SHR!A1", "ACC.SHR")</f>
         <v/>
       </c>
       <c r="B28" s="4" t="inlineStr"/>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="5">
-        <f>HYPERLINK("#EDR!A1", "EDR")</f>
+        <f>HYPERLINK("#ACC.EDR!A1", "ACC.EDR")</f>
         <v/>
       </c>
       <c r="B29" s="2" t="inlineStr"/>
     </row>
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="3">
-        <f>HYPERLINK("#ODR!A1", "ODR")</f>
+        <f>HYPERLINK("#ACC.ODR!A1", "ACC.ODR")</f>
         <v/>
       </c>
       <c r="B30" s="4" t="inlineStr"/>
     </row>
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="5">
-        <f>HYPERLINK("#ASST.NN_FNNCL!A1", "ASST.NN_FNNCL")</f>
+        <f>HYPERLINK("#ACC.ASST_NN_FNNCL!A1", "ACC.ASST_NN_FNNCL")</f>
         <v/>
       </c>
       <c r="B31" s="2" t="inlineStr"/>
     </row>
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="3">
-        <f>HYPERLINK("#ASST.RMNNG!A1", "ASST.RMNNG")</f>
+        <f>HYPERLINK("#ACC.ASST_RMNNG!A1", "ACC.ASST_RMNNG")</f>
         <v/>
       </c>
       <c r="B32" s="4" t="inlineStr"/>
     </row>
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="5">
-        <f>HYPERLINK("#LBLTY.SFT!A1", "LBLTY.SFT")</f>
+        <f>HYPERLINK("#ACC.LBLTY_SFT!A1", "ACC.LBLTY_SFT")</f>
         <v/>
       </c>
       <c r="B33" s="2" t="inlineStr"/>
     </row>
     <row r="34" ht="25" customHeight="1">
       <c r="A34" s="3">
-        <f>HYPERLINK("#LBLTY.DBT!A1", "LBLTY.DBT")</f>
+        <f>HYPERLINK("#ACC.LBLTY_DBT!A1", "ACC.LBLTY_DBT")</f>
         <v/>
       </c>
       <c r="B34" s="4" t="inlineStr"/>
     </row>
     <row r="35" ht="25" customHeight="1">
       <c r="A35" s="5">
-        <f>HYPERLINK("#LBLTY.LN!A1", "LBLTY.LN")</f>
+        <f>HYPERLINK("#ACC.LBLTY_LN!A1", "ACC.LBLTY_LN")</f>
         <v/>
       </c>
       <c r="B35" s="2" t="inlineStr"/>
     </row>
     <row r="36" ht="25" customHeight="1">
       <c r="A36" s="3">
-        <f>HYPERLINK("#LBLTY.RMNNG!A1", "LBLTY.RMNNG")</f>
+        <f>HYPERLINK("#ACC.LBLTY_RMNNG!A1", "ACC.LBLTY_RMNNG")</f>
         <v/>
       </c>
       <c r="B36" s="4" t="inlineStr"/>
     </row>
     <row r="37" ht="25" customHeight="1">
       <c r="A37" s="5">
-        <f>HYPERLINK("#HLDR!A1", "HLDR")</f>
+        <f>HYPERLINK("#ACC.HLDR!A1", "ACC.HLDR")</f>
         <v/>
       </c>
       <c r="B37" s="2" t="inlineStr"/>
     </row>
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="3">
-        <f>HYPERLINK("#RVN!A1", "RVN")</f>
+        <f>HYPERLINK("#ACC.RVN!A1", "ACC.RVN")</f>
         <v/>
       </c>
       <c r="B38" s="4" t="inlineStr"/>
     </row>
     <row r="39" ht="25" customHeight="1">
       <c r="A39" s="5">
-        <f>HYPERLINK("#EXPNS!A1", "EXPNS")</f>
+        <f>HYPERLINK("#ACC.EXPNS!A1", "ACC.EXPNS")</f>
         <v/>
       </c>
       <c r="B39" s="2" t="inlineStr"/>
@@ -44887,7 +44887,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="C4:C5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ASST.SFT_'!$A$1:$A$35</formula1>
+      <formula1>'ACC.ASST_SFT_'!$A$1:$A$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -45721,7 +45721,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ASST.DBT_'!$A$1:$A$35</formula1>
+      <formula1>'ACC.ASST_DBT_'!$A$1:$A$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46111,7 +46111,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="C4:C5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ASST.LN_'!$A$1:$A$35</formula1>
+      <formula1>'ACC.ASST_LN_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"True,False"</formula1>
@@ -46524,7 +46524,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'SHR_'!$A$1:$A$35</formula1>
+      <formula1>'ACC.SHR_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="I4:I5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"True,False"</formula1>
@@ -46917,7 +46917,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'EDR_'!$A$1:$A$35</formula1>
+      <formula1>'ACC.EDR_'!$A$1:$A$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -47287,7 +47287,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="C4:C5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ODR_'!$A$1:$A$35</formula1>
+      <formula1>'ACC.ODR_'!$A$1:$A$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -48043,13 +48043,13 @@
   </mergeCells>
   <dataValidations count="3">
     <dataValidation sqref="A4:A5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ASST.NN_FNNCL_'!$A$1:$A$7</formula1>
+      <formula1>'ACC.ASST_NN_FNNCL_'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation sqref="B4:B5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ASST.NN_FNNCL_'!$B$1:$B$104</formula1>
+      <formula1>'ACC.ASST_NN_FNNCL_'!$B$1:$B$104</formula1>
     </dataValidation>
     <dataValidation sqref="E4:E5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ASST.NN_FNNCL_'!$C$1:$C$35</formula1>
+      <formula1>'ACC.ASST_NN_FNNCL_'!$C$1:$C$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -49122,10 +49122,10 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="A4:A5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ASST.RMNNG_'!$A$1:$A$6</formula1>
+      <formula1>'ACC.ASST_RMNNG_'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ASST.RMNNG_'!$B$1:$B$35</formula1>
+      <formula1>'ACC.ASST_RMNNG_'!$B$1:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -49525,7 +49525,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="C4:C5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'LBLTY.SFT_'!$A$1:$A$35</formula1>
+      <formula1>'ACC.LBLTY_SFT_'!$A$1:$A$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -49925,7 +49925,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'LBLTY.DBT_'!$A$1:$A$35</formula1>
+      <formula1>'ACC.LBLTY_DBT_'!$A$1:$A$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -50315,7 +50315,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="C4:C5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'LBLTY.LN_'!$A$1:$A$35</formula1>
+      <formula1>'ACC.LBLTY_LN_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"True,False"</formula1>
@@ -51111,10 +51111,10 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="A4:A5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'LBLTY.RMNNG_'!$A$1:$A$11</formula1>
+      <formula1>'ACC.LBLTY_RMNNG_'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'LBLTY.RMNNG_'!$B$1:$B$35</formula1>
+      <formula1>'ACC.LBLTY_RMNNG_'!$B$1:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51559,7 +51559,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'HLDR_'!$A$1:$A$35</formula1>
+      <formula1>'ACC.HLDR_'!$A$1:$A$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51927,10 +51927,10 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="B4:B5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'RVN_'!$A$1:$A$6</formula1>
+      <formula1>'ACC.RVN_'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'RVN_'!$B$1:$B$35</formula1>
+      <formula1>'ACC.RVN_'!$B$1:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -52328,10 +52328,10 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="B4:B5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'EXPNS_'!$A$1:$A$11</formula1>
+      <formula1>'ACC.EXPNS_'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'EXPNS_'!$B$1:$B$35</formula1>
+      <formula1>'ACC.EXPNS_'!$B$1:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/source/_static/structure/IFDAT_TEMPLATE.xlsx
+++ b/docs/source/_static/structure/IFDAT_TEMPLATE.xlsx
@@ -33,61 +33,57 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.MNGMNT_" sheetId="24" state="hidden" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.MNGMNT_DYNMC" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.MNGMNT_DYNMC_" sheetId="26" state="hidden" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.USR" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.USR_" sheetId="28" state="hidden" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.USR_T_RA" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.USR_T_RA_" sheetId="30" state="hidden" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.CNTRPRTY" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.CNTRPRTY_" sheetId="32" state="hidden" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.DPST" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.DPST_" sheetId="34" state="hidden" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.SFT" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.SFT_" sheetId="36" state="hidden" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.LN" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.LN_" sheetId="38" state="hidden" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.DBT" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.DBT_" sheetId="40" state="hidden" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.SHR" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.SHR_" sheetId="42" state="hidden" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.EDR" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.EDR_" sheetId="44" state="hidden" r:id="rId44"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.ODR" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.ODR_" sheetId="46" state="hidden" r:id="rId46"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.DPST" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.DPST_" sheetId="48" state="hidden" r:id="rId48"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_SFT" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_SFT_" sheetId="50" state="hidden" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_DBT" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_DBT_" sheetId="52" state="hidden" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_LN" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_LN_" sheetId="54" state="hidden" r:id="rId54"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.SHR" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.SHR_" sheetId="56" state="hidden" r:id="rId56"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.EDR" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.EDR_" sheetId="58" state="hidden" r:id="rId58"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ODR" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ODR_" sheetId="60" state="hidden" r:id="rId60"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_NN_FNNCL" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_NN_FNNCL_" sheetId="62" state="hidden" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_RMNNG" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_RMNNG_" sheetId="64" state="hidden" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_SFT" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_SFT_" sheetId="66" state="hidden" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_DBT" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_DBT_" sheetId="68" state="hidden" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_LN" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_LN_" sheetId="70" state="hidden" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_RMNNG" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_RMNNG_" sheetId="72" state="hidden" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.HLDR" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.HLDR_" sheetId="74" state="hidden" r:id="rId74"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.RVN" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.RVN_" sheetId="76" state="hidden" r:id="rId76"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.EXPNS" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.EXPNS_" sheetId="78" state="hidden" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.CNTRPRTY" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.CNTRPRTY_" sheetId="28" state="hidden" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.DPST" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.DPST_" sheetId="30" state="hidden" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.SFT" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.SFT_" sheetId="32" state="hidden" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.LN" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.LN_" sheetId="34" state="hidden" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.DBT" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.DBT_" sheetId="36" state="hidden" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.SHR" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.SHR_" sheetId="38" state="hidden" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.EDR" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.EDR_" sheetId="40" state="hidden" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.ODR" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REF.ODR_" sheetId="42" state="hidden" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.DPST" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.DPST_" sheetId="44" state="hidden" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_SFT" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_SFT_" sheetId="46" state="hidden" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_DBT" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_DBT_" sheetId="48" state="hidden" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_LN" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_LN_" sheetId="50" state="hidden" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.SHR" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.SHR_" sheetId="52" state="hidden" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.EDR" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.EDR_" sheetId="54" state="hidden" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ODR" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ODR_" sheetId="56" state="hidden" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_NN_FNNCL" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_NN_FNNCL_" sheetId="58" state="hidden" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_RMNNG" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.ASST_RMNNG_" sheetId="60" state="hidden" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_SFT" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_SFT_" sheetId="62" state="hidden" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_DBT" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_DBT_" sheetId="64" state="hidden" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_LN" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_LN_" sheetId="66" state="hidden" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_RMNNG" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.LBLTY_RMNNG_" sheetId="68" state="hidden" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.HLDR" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.HLDR_" sheetId="70" state="hidden" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.RVN" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.RVN_" sheetId="72" state="hidden" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.EXPNS" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACC.EXPNS_" sheetId="74" state="hidden" r:id="rId74"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CONTENTS'!$A$1:$B$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CONTENTS'!$A$1:$B$37</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19799,7 +19795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19909,190 +19905,176 @@
     </row>
     <row r="14" ht="25" customHeight="1">
       <c r="A14" s="3">
-        <f>HYPERLINK("#REF.USR!A1", "REF.USR")</f>
+        <f>HYPERLINK("#REF.CNTRPRTY!A1", "REF.CNTRPRTY")</f>
         <v/>
       </c>
       <c r="B14" s="4" t="inlineStr"/>
     </row>
     <row r="15" ht="25" customHeight="1">
       <c r="A15" s="5">
-        <f>HYPERLINK("#REF.USR_T_RA!A1", "REF.USR_T_RA")</f>
+        <f>HYPERLINK("#REF.DPST!A1", "REF.DPST")</f>
         <v/>
       </c>
       <c r="B15" s="2" t="inlineStr"/>
     </row>
     <row r="16" ht="25" customHeight="1">
       <c r="A16" s="3">
-        <f>HYPERLINK("#REF.CNTRPRTY!A1", "REF.CNTRPRTY")</f>
+        <f>HYPERLINK("#REF.SFT!A1", "REF.SFT")</f>
         <v/>
       </c>
       <c r="B16" s="4" t="inlineStr"/>
     </row>
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="5">
-        <f>HYPERLINK("#REF.DPST!A1", "REF.DPST")</f>
+        <f>HYPERLINK("#REF.LN!A1", "REF.LN")</f>
         <v/>
       </c>
       <c r="B17" s="2" t="inlineStr"/>
     </row>
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="3">
-        <f>HYPERLINK("#REF.SFT!A1", "REF.SFT")</f>
+        <f>HYPERLINK("#REF.DBT!A1", "REF.DBT")</f>
         <v/>
       </c>
       <c r="B18" s="4" t="inlineStr"/>
     </row>
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="5">
-        <f>HYPERLINK("#REF.LN!A1", "REF.LN")</f>
+        <f>HYPERLINK("#REF.SHR!A1", "REF.SHR")</f>
         <v/>
       </c>
       <c r="B19" s="2" t="inlineStr"/>
     </row>
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="3">
-        <f>HYPERLINK("#REF.DBT!A1", "REF.DBT")</f>
+        <f>HYPERLINK("#REF.EDR!A1", "REF.EDR")</f>
         <v/>
       </c>
       <c r="B20" s="4" t="inlineStr"/>
     </row>
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="5">
-        <f>HYPERLINK("#REF.SHR!A1", "REF.SHR")</f>
+        <f>HYPERLINK("#REF.ODR!A1", "REF.ODR")</f>
         <v/>
       </c>
       <c r="B21" s="2" t="inlineStr"/>
     </row>
     <row r="22" ht="25" customHeight="1">
       <c r="A22" s="3">
-        <f>HYPERLINK("#REF.EDR!A1", "REF.EDR")</f>
+        <f>HYPERLINK("#ACC.DPST!A1", "ACC.DPST")</f>
         <v/>
       </c>
       <c r="B22" s="4" t="inlineStr"/>
     </row>
     <row r="23" ht="25" customHeight="1">
       <c r="A23" s="5">
-        <f>HYPERLINK("#REF.ODR!A1", "REF.ODR")</f>
+        <f>HYPERLINK("#ACC.ASST_SFT!A1", "ACC.ASST_SFT")</f>
         <v/>
       </c>
       <c r="B23" s="2" t="inlineStr"/>
     </row>
     <row r="24" ht="25" customHeight="1">
       <c r="A24" s="3">
-        <f>HYPERLINK("#ACC.DPST!A1", "ACC.DPST")</f>
+        <f>HYPERLINK("#ACC.ASST_DBT!A1", "ACC.ASST_DBT")</f>
         <v/>
       </c>
       <c r="B24" s="4" t="inlineStr"/>
     </row>
     <row r="25" ht="25" customHeight="1">
       <c r="A25" s="5">
-        <f>HYPERLINK("#ACC.ASST_SFT!A1", "ACC.ASST_SFT")</f>
+        <f>HYPERLINK("#ACC.ASST_LN!A1", "ACC.ASST_LN")</f>
         <v/>
       </c>
       <c r="B25" s="2" t="inlineStr"/>
     </row>
     <row r="26" ht="25" customHeight="1">
       <c r="A26" s="3">
-        <f>HYPERLINK("#ACC.ASST_DBT!A1", "ACC.ASST_DBT")</f>
+        <f>HYPERLINK("#ACC.SHR!A1", "ACC.SHR")</f>
         <v/>
       </c>
       <c r="B26" s="4" t="inlineStr"/>
     </row>
     <row r="27" ht="25" customHeight="1">
       <c r="A27" s="5">
-        <f>HYPERLINK("#ACC.ASST_LN!A1", "ACC.ASST_LN")</f>
+        <f>HYPERLINK("#ACC.EDR!A1", "ACC.EDR")</f>
         <v/>
       </c>
       <c r="B27" s="2" t="inlineStr"/>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3">
-        <f>HYPERLINK("#ACC.SHR!A1", "ACC.SHR")</f>
+        <f>HYPERLINK("#ACC.ODR!A1", "ACC.ODR")</f>
         <v/>
       </c>
       <c r="B28" s="4" t="inlineStr"/>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="5">
-        <f>HYPERLINK("#ACC.EDR!A1", "ACC.EDR")</f>
+        <f>HYPERLINK("#ACC.ASST_NN_FNNCL!A1", "ACC.ASST_NN_FNNCL")</f>
         <v/>
       </c>
       <c r="B29" s="2" t="inlineStr"/>
     </row>
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="3">
-        <f>HYPERLINK("#ACC.ODR!A1", "ACC.ODR")</f>
+        <f>HYPERLINK("#ACC.ASST_RMNNG!A1", "ACC.ASST_RMNNG")</f>
         <v/>
       </c>
       <c r="B30" s="4" t="inlineStr"/>
     </row>
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="5">
-        <f>HYPERLINK("#ACC.ASST_NN_FNNCL!A1", "ACC.ASST_NN_FNNCL")</f>
+        <f>HYPERLINK("#ACC.LBLTY_SFT!A1", "ACC.LBLTY_SFT")</f>
         <v/>
       </c>
       <c r="B31" s="2" t="inlineStr"/>
     </row>
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="3">
-        <f>HYPERLINK("#ACC.ASST_RMNNG!A1", "ACC.ASST_RMNNG")</f>
+        <f>HYPERLINK("#ACC.LBLTY_DBT!A1", "ACC.LBLTY_DBT")</f>
         <v/>
       </c>
       <c r="B32" s="4" t="inlineStr"/>
     </row>
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="5">
-        <f>HYPERLINK("#ACC.LBLTY_SFT!A1", "ACC.LBLTY_SFT")</f>
+        <f>HYPERLINK("#ACC.LBLTY_LN!A1", "ACC.LBLTY_LN")</f>
         <v/>
       </c>
       <c r="B33" s="2" t="inlineStr"/>
     </row>
     <row r="34" ht="25" customHeight="1">
       <c r="A34" s="3">
-        <f>HYPERLINK("#ACC.LBLTY_DBT!A1", "ACC.LBLTY_DBT")</f>
+        <f>HYPERLINK("#ACC.LBLTY_RMNNG!A1", "ACC.LBLTY_RMNNG")</f>
         <v/>
       </c>
       <c r="B34" s="4" t="inlineStr"/>
     </row>
     <row r="35" ht="25" customHeight="1">
       <c r="A35" s="5">
-        <f>HYPERLINK("#ACC.LBLTY_LN!A1", "ACC.LBLTY_LN")</f>
+        <f>HYPERLINK("#ACC.HLDR!A1", "ACC.HLDR")</f>
         <v/>
       </c>
       <c r="B35" s="2" t="inlineStr"/>
     </row>
     <row r="36" ht="25" customHeight="1">
       <c r="A36" s="3">
-        <f>HYPERLINK("#ACC.LBLTY_RMNNG!A1", "ACC.LBLTY_RMNNG")</f>
+        <f>HYPERLINK("#ACC.RVN!A1", "ACC.RVN")</f>
         <v/>
       </c>
       <c r="B36" s="4" t="inlineStr"/>
     </row>
     <row r="37" ht="25" customHeight="1">
       <c r="A37" s="5">
-        <f>HYPERLINK("#ACC.HLDR!A1", "ACC.HLDR")</f>
-        <v/>
-      </c>
-      <c r="B37" s="2" t="inlineStr"/>
-    </row>
-    <row r="38" ht="25" customHeight="1">
-      <c r="A38" s="3">
-        <f>HYPERLINK("#ACC.RVN!A1", "ACC.RVN")</f>
-        <v/>
-      </c>
-      <c r="B38" s="4" t="inlineStr"/>
-    </row>
-    <row r="39" ht="25" customHeight="1">
-      <c r="A39" s="5">
         <f>HYPERLINK("#ACC.EXPNS!A1", "ACC.EXPNS")</f>
         <v/>
       </c>
-      <c r="B39" s="2" t="inlineStr"/>
+      <c r="B37" s="2" t="inlineStr"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B39"/>
+  <autoFilter ref="A1:B37"/>
   <dataValidations count="1">
-    <dataValidation sqref="B2:B39" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B2:B37" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"True"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21721,7 +21703,966 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14.85" customWidth="1" min="1" max="1"/>
+    <col width="13.5" customWidth="1" min="2" max="2"/>
+    <col width="13.5" customWidth="1" min="3" max="3"/>
+    <col width="13.5" customWidth="1" min="4" max="4"/>
+    <col width="17.55" customWidth="1" min="5" max="5"/>
+    <col width="20.25" customWidth="1" min="6" max="6"/>
+    <col width="13.5" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="60" customHeight="1">
+      <c r="A1" s="6">
+        <f>HYPERLINK("#CONTENTS!A1", "CONTENTS")</f>
+        <v/>
+      </c>
+      <c r="B1" s="7" t="inlineStr"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="n"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="9" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>MEASURES</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="8" t="n"/>
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>DT_BRTH</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>DT_CLS</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>NM_LTN</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>CNTRY_RSDNC</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>INSTTTNL_SCTR</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>ALS_OF</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="n"/>
+      <c r="B4" s="13" t="n"/>
+      <c r="C4" s="13" t="n"/>
+      <c r="D4" s="14" t="n"/>
+      <c r="E4" s="14" t="n"/>
+      <c r="F4" s="14" t="n"/>
+      <c r="G4" s="14" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="13" t="n"/>
+      <c r="C5" s="13" t="n"/>
+      <c r="D5" s="14" t="n"/>
+      <c r="E5" s="14" t="n"/>
+      <c r="F5" s="14" t="n"/>
+      <c r="G5" s="14" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation sqref="E4:E5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.CNTRPRTY_'!$A$1:$A$104</formula1>
+    </dataValidation>
+    <dataValidation sqref="F4:F5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.CNTRPRTY_'!$B$1:$B$17</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S121</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S122</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S123</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S124</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>S125</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>S126</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>S127</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>S128</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BH</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>S129</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BJ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>S1311</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BM</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>S1312</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>S1313</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>S1314</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>S15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CW</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CY</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DK</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ER</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>FI</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>FO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GI</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GR</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HU</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>IM</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>IO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>IS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>JE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>KE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>KZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LV</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>LY</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MK</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MW</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SH</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>TZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>UA</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>VE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>VG</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -21737,6 +22678,10 @@
     <col width="13.5" customWidth="1" min="3" max="3"/>
     <col width="13.5" customWidth="1" min="4" max="4"/>
     <col width="13.5" customWidth="1" min="5" max="5"/>
+    <col width="13.5" customWidth="1" min="6" max="6"/>
+    <col width="13.5" customWidth="1" min="7" max="7"/>
+    <col width="13.5" customWidth="1" min="8" max="8"/>
+    <col width="13.5" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
@@ -21747,7 +22692,11 @@
       <c r="B1" s="7" t="inlineStr"/>
       <c r="C1" s="8" t="n"/>
       <c r="D1" s="8" t="n"/>
-      <c r="E1" s="9" t="n"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="9" t="n"/>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="10" t="inlineStr">
@@ -21762,7 +22711,11 @@
       </c>
       <c r="C2" s="8" t="n"/>
       <c r="D2" s="8" t="n"/>
-      <c r="E2" s="9" t="n"/>
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="8" t="n"/>
+      <c r="G2" s="8" t="n"/>
+      <c r="H2" s="8" t="n"/>
+      <c r="I2" s="9" t="n"/>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="10" t="inlineStr">
@@ -21772,192 +22725,81 @@
       </c>
       <c r="B3" s="7" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DT_BRTH</t>
         </is>
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>FRST</t>
+          <t>DT_CLS</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>LST</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>PHN</t>
+          <t>NTC</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>CRRNCY</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>DBTR</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
+        <is>
+          <t>CRDTR</t>
+        </is>
+      </c>
+      <c r="I3" s="7" t="inlineStr">
+        <is>
+          <t>ALS_OF</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="n"/>
-      <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
+      <c r="B4" s="13" t="n"/>
+      <c r="C4" s="13" t="n"/>
       <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="n"/>
-      <c r="B5" s="14" t="n"/>
-      <c r="C5" s="14" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="14" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="16.2" customWidth="1" min="1" max="1"/>
-    <col width="16.2" customWidth="1" min="2" max="2"/>
-    <col width="16.2" customWidth="1" min="3" max="3"/>
-    <col width="16.2" customWidth="1" min="4" max="4"/>
-    <col width="16.2" customWidth="1" min="5" max="5"/>
-    <col width="13.5" customWidth="1" min="6" max="6"/>
-    <col width="24.3" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="60" customHeight="1">
-      <c r="A1" s="6">
-        <f>HYPERLINK("#CONTENTS!A1", "CONTENTS")</f>
-        <v/>
-      </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="8" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="7" t="inlineStr"/>
-      <c r="F1" s="8" t="n"/>
-      <c r="G1" s="9" t="n"/>
-    </row>
-    <row r="2" ht="60" customHeight="1">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>DIMENSIONS</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="11" t="inlineStr">
-        <is>
-          <t>MEASURES</t>
-        </is>
-      </c>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>LID</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>RID</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>VLD_FRM</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>VLD_T</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>ASSCTD_WTH</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>WRKS_FR</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>RSPNSBL_FR_IFDAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="12" t="n"/>
-      <c r="C4" s="15" t="n"/>
-      <c r="D4" s="15" t="n"/>
       <c r="E4" s="14" t="n"/>
       <c r="F4" s="14" t="n"/>
       <c r="G4" s="14" t="n"/>
+      <c r="H4" s="14" t="n"/>
+      <c r="I4" s="14" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="12" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="15" t="n"/>
-      <c r="D5" s="15" t="n"/>
+      <c r="B5" s="13" t="n"/>
+      <c r="C5" s="13" t="n"/>
+      <c r="D5" s="14" t="n"/>
       <c r="E5" s="14" t="n"/>
       <c r="F5" s="14" t="n"/>
       <c r="G5" s="14" t="n"/>
+      <c r="H5" s="14" t="n"/>
+      <c r="I5" s="14" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation sqref="E4:E5 G4:G5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'REF.USR_T_RA_'!$A$1:$A$3</formula1>
+    <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.DPST_'!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4:E5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.DPST_'!$B$1:$B$4</formula1>
     </dataValidation>
     <dataValidation sqref="F4:F5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'REF.USR_T_RA_'!$B$1:$B$7</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4:E5 G4:G5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'REF.USR_T_RA_'!$A$1:$A$3</formula1>
+      <formula1>'REF.DPST_'!$C$1:$C$42</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22099,1198 +22941,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ACC</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ECO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>COM</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>STA</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ORG</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14.85" customWidth="1" min="1" max="1"/>
-    <col width="13.5" customWidth="1" min="2" max="2"/>
-    <col width="13.5" customWidth="1" min="3" max="3"/>
-    <col width="13.5" customWidth="1" min="4" max="4"/>
-    <col width="17.55" customWidth="1" min="5" max="5"/>
-    <col width="20.25" customWidth="1" min="6" max="6"/>
-    <col width="13.5" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="60" customHeight="1">
-      <c r="A1" s="6">
-        <f>HYPERLINK("#CONTENTS!A1", "CONTENTS")</f>
-        <v/>
-      </c>
-      <c r="B1" s="7" t="inlineStr"/>
-      <c r="C1" s="8" t="n"/>
-      <c r="D1" s="8" t="n"/>
-      <c r="E1" s="8" t="n"/>
-      <c r="F1" s="8" t="n"/>
-      <c r="G1" s="9" t="n"/>
-    </row>
-    <row r="2" ht="60" customHeight="1">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>DIMENSION</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>MEASURES</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="8" t="n"/>
-      <c r="E2" s="8" t="n"/>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>DT_BRTH</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>DT_CLS</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>NM_LTN</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>CNTRY_RSDNC</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>INSTTTNL_SCTR</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>ALS_OF</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="13" t="n"/>
-      <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="14" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="n"/>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="14" t="n"/>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="14" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation sqref="E4:E5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'REF.CNTRPRTY_'!$A$1:$A$104</formula1>
-    </dataValidation>
-    <dataValidation sqref="F4:F5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'REF.CNTRPRTY_'!$B$1:$B$17</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B104"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AE</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>S11</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AF</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>S121</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>S122</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AO</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>S123</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>S124</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AT</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>S125</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>S126</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>S127</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>S128</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>BH</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>S129</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>BJ</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>S1311</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>BM</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>S1312</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>S1313</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>S1314</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>BY</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>S14</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>BZ</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>S15</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>CG</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>CH</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>CW</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>CY</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>CZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>EG</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ER</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>FI</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>FO</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>GE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>GI</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>GR</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HK</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>HU</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>IE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>IM</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>IO</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>JE</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>KE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>KZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>LB</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>LR</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>LV</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>LY</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>ME</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MH</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>MK</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MN</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MU</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MW</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>NL</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>NZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>OM</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>SH</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>TZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>UA</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>VE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>VG</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>ZM</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14.85" customWidth="1" min="1" max="1"/>
-    <col width="13.5" customWidth="1" min="2" max="2"/>
-    <col width="13.5" customWidth="1" min="3" max="3"/>
-    <col width="13.5" customWidth="1" min="4" max="4"/>
-    <col width="13.5" customWidth="1" min="5" max="5"/>
-    <col width="13.5" customWidth="1" min="6" max="6"/>
-    <col width="13.5" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="13.5" customWidth="1" min="9" max="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="60" customHeight="1">
-      <c r="A1" s="6">
-        <f>HYPERLINK("#CONTENTS!A1", "CONTENTS")</f>
-        <v/>
-      </c>
-      <c r="B1" s="7" t="inlineStr"/>
-      <c r="C1" s="8" t="n"/>
-      <c r="D1" s="8" t="n"/>
-      <c r="E1" s="8" t="n"/>
-      <c r="F1" s="8" t="n"/>
-      <c r="G1" s="8" t="n"/>
-      <c r="H1" s="8" t="n"/>
-      <c r="I1" s="9" t="n"/>
-    </row>
-    <row r="2" ht="60" customHeight="1">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>DIMENSION</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>MEASURES</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="8" t="n"/>
-      <c r="E2" s="8" t="n"/>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="8" t="n"/>
-      <c r="H2" s="8" t="n"/>
-      <c r="I2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>DT_BRTH</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>DT_CLS</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>TYP</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>NTC</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>CRRNCY</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>DBTR</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>CRDTR</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>ALS_OF</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="13" t="n"/>
-      <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="14" t="n"/>
-      <c r="H4" s="14" t="n"/>
-      <c r="I4" s="14" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="n"/>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="14" t="n"/>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="14" t="n"/>
-      <c r="H5" s="14" t="n"/>
-      <c r="I5" s="14" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'REF.DPST_'!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4:E5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'REF.DPST_'!$B$1:$B$4</formula1>
-    </dataValidation>
-    <dataValidation sqref="F4:F5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'REF.DPST_'!$C$1:$C$42</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23638,7 +23288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23775,7 +23425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24113,7 +23763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24250,7 +23900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24628,7 +24278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24755,25 +24405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25111,7 +24743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25238,7 +24870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25581,7 +25213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25741,7 +25373,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -43893,7 +43543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -44050,7 +43700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -44408,7 +44058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -44524,7 +44174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -44788,7 +44438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -44888,6 +44538,809 @@
   <dataValidations count="1">
     <dataValidation sqref="C4:C5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'ACC.ASST_SFT_'!$A$1:$A$35</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>M_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>M_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>W2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>W4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>W_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>W_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>D_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>OA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>_O</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>_Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16.2" customWidth="1" min="1" max="1"/>
+    <col width="16.2" customWidth="1" min="2" max="2"/>
+    <col width="16.2" customWidth="1" min="3" max="3"/>
+    <col width="16.2" customWidth="1" min="4" max="4"/>
+    <col width="13.5" customWidth="1" min="5" max="5"/>
+    <col width="13.5" customWidth="1" min="6" max="6"/>
+    <col width="14.85" customWidth="1" min="7" max="7"/>
+    <col width="16.2" customWidth="1" min="8" max="8"/>
+    <col width="13.5" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="60" customHeight="1">
+      <c r="A1" s="6">
+        <f>HYPERLINK("#CONTENTS!A1", "CONTENTS")</f>
+        <v/>
+      </c>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="7" t="inlineStr"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="9" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>DIMENSIONS</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="9" t="n"/>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>MEASURES</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="n"/>
+      <c r="G2" s="8" t="n"/>
+      <c r="H2" s="8" t="n"/>
+      <c r="I2" s="9" t="n"/>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>IID</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>FRQNCY</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>FLS</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>NMNL_STCK</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
+        <is>
+          <t>LND_FR_SFT</t>
+        </is>
+      </c>
+      <c r="I3" s="7" t="inlineStr">
+        <is>
+          <t>ACCRLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="n"/>
+      <c r="B4" s="12" t="n"/>
+      <c r="C4" s="15" t="n"/>
+      <c r="D4" s="12" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="16" t="n"/>
+      <c r="G4" s="16" t="n"/>
+      <c r="H4" s="16" t="n"/>
+      <c r="I4" s="16" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="12" t="n"/>
+      <c r="C5" s="15" t="n"/>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="16" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'ACC.ASST_DBT_'!$A$1:$A$35</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>M_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>M_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>W2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>W4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>W_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>W_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>D_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>OA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>_O</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>_Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16.2" customWidth="1" min="1" max="1"/>
+    <col width="16.2" customWidth="1" min="2" max="2"/>
+    <col width="16.2" customWidth="1" min="3" max="3"/>
+    <col width="13.5" customWidth="1" min="4" max="4"/>
+    <col width="13.5" customWidth="1" min="5" max="5"/>
+    <col width="13.5" customWidth="1" min="6" max="6"/>
+    <col width="14.85" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="60" customHeight="1">
+      <c r="A1" s="6">
+        <f>HYPERLINK("#CONTENTS!A1", "CONTENTS")</f>
+        <v/>
+      </c>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="7" t="inlineStr"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="9" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>DIMENSIONS</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="9" t="n"/>
+      <c r="D2" s="11" t="inlineStr">
+        <is>
+          <t>MEASURES</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="8" t="n"/>
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>IID</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>FRQNCY</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>FLS</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>ACCRLS</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>IS_GRP_LN</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="n"/>
+      <c r="B4" s="15" t="n"/>
+      <c r="C4" s="12" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="16" t="n"/>
+      <c r="G4" s="14" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="15" t="n"/>
+      <c r="C5" s="12" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+      <c r="G5" s="14" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation sqref="C4:C5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'ACC.ASST_LN_'!$A$1:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="G4:G5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -45605,9 +46058,9 @@
     <col width="16.2" customWidth="1" min="4" max="4"/>
     <col width="13.5" customWidth="1" min="5" max="5"/>
     <col width="13.5" customWidth="1" min="6" max="6"/>
-    <col width="14.85" customWidth="1" min="7" max="7"/>
+    <col width="13.5" customWidth="1" min="7" max="7"/>
     <col width="16.2" customWidth="1" min="8" max="8"/>
-    <col width="13.5" customWidth="1" min="9" max="9"/>
+    <col width="24.3" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
@@ -45676,7 +46129,7 @@
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>NMNL_STCK</t>
+          <t>QNTTY</t>
         </is>
       </c>
       <c r="H3" s="7" t="inlineStr">
@@ -45686,7 +46139,7 @@
       </c>
       <c r="I3" s="7" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>IS_DRCT_INVSTMNT</t>
         </is>
       </c>
     </row>
@@ -45699,7 +46152,7 @@
       <c r="F4" s="16" t="n"/>
       <c r="G4" s="16" t="n"/>
       <c r="H4" s="16" t="n"/>
-      <c r="I4" s="16" t="n"/>
+      <c r="I4" s="14" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="12" t="n"/>
@@ -45710,7 +46163,7 @@
       <c r="F5" s="16" t="n"/>
       <c r="G5" s="16" t="n"/>
       <c r="H5" s="16" t="n"/>
-      <c r="I5" s="16" t="n"/>
+      <c r="I5" s="14" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -45719,9 +46172,12 @@
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.ASST_DBT_'!$A$1:$A$35</formula1>
+      <formula1>'ACC.SHR_'!$A$1:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="I4:I5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -45993,812 +46449,6 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="16.2" customWidth="1" min="1" max="1"/>
-    <col width="16.2" customWidth="1" min="2" max="2"/>
-    <col width="16.2" customWidth="1" min="3" max="3"/>
-    <col width="13.5" customWidth="1" min="4" max="4"/>
-    <col width="13.5" customWidth="1" min="5" max="5"/>
-    <col width="13.5" customWidth="1" min="6" max="6"/>
-    <col width="14.85" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="60" customHeight="1">
-      <c r="A1" s="6">
-        <f>HYPERLINK("#CONTENTS!A1", "CONTENTS")</f>
-        <v/>
-      </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="7" t="inlineStr"/>
-      <c r="E1" s="8" t="n"/>
-      <c r="F1" s="8" t="n"/>
-      <c r="G1" s="9" t="n"/>
-    </row>
-    <row r="2" ht="60" customHeight="1">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>DIMENSIONS</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="11" t="inlineStr">
-        <is>
-          <t>MEASURES</t>
-        </is>
-      </c>
-      <c r="E2" s="8" t="n"/>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>IID</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>FRQNCY</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>STCK</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>FLS</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>ACCRLS</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>IS_GRP_LN</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="15" t="n"/>
-      <c r="C4" s="12" t="n"/>
-      <c r="D4" s="16" t="n"/>
-      <c r="E4" s="16" t="n"/>
-      <c r="F4" s="16" t="n"/>
-      <c r="G4" s="14" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="n"/>
-      <c r="B5" s="15" t="n"/>
-      <c r="C5" s="12" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="16" t="n"/>
-      <c r="F5" s="16" t="n"/>
-      <c r="G5" s="14" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation sqref="C4:C5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.ASST_LN_'!$A$1:$A$35</formula1>
-    </dataValidation>
-    <dataValidation sqref="G4:G5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>"True,False"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A10</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A20</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A30</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>M_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>M_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>W_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>W_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>D_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>OA</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>OM</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>_O</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>_U</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>_Z</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="16.2" customWidth="1" min="1" max="1"/>
-    <col width="16.2" customWidth="1" min="2" max="2"/>
-    <col width="16.2" customWidth="1" min="3" max="3"/>
-    <col width="16.2" customWidth="1" min="4" max="4"/>
-    <col width="13.5" customWidth="1" min="5" max="5"/>
-    <col width="13.5" customWidth="1" min="6" max="6"/>
-    <col width="13.5" customWidth="1" min="7" max="7"/>
-    <col width="16.2" customWidth="1" min="8" max="8"/>
-    <col width="24.3" customWidth="1" min="9" max="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="60" customHeight="1">
-      <c r="A1" s="6">
-        <f>HYPERLINK("#CONTENTS!A1", "CONTENTS")</f>
-        <v/>
-      </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="8" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="7" t="inlineStr"/>
-      <c r="F1" s="8" t="n"/>
-      <c r="G1" s="8" t="n"/>
-      <c r="H1" s="8" t="n"/>
-      <c r="I1" s="9" t="n"/>
-    </row>
-    <row r="2" ht="60" customHeight="1">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>DIMENSIONS</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="11" t="inlineStr">
-        <is>
-          <t>MEASURES</t>
-        </is>
-      </c>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="8" t="n"/>
-      <c r="H2" s="8" t="n"/>
-      <c r="I2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>IID</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>FRQNCY</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>STCK</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>FLS</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>QNTTY</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>LND_FR_SFT</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>IS_DRCT_INVSTMNT</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="12" t="n"/>
-      <c r="C4" s="15" t="n"/>
-      <c r="D4" s="12" t="n"/>
-      <c r="E4" s="16" t="n"/>
-      <c r="F4" s="16" t="n"/>
-      <c r="G4" s="16" t="n"/>
-      <c r="H4" s="16" t="n"/>
-      <c r="I4" s="14" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="15" t="n"/>
-      <c r="D5" s="12" t="n"/>
-      <c r="E5" s="16" t="n"/>
-      <c r="F5" s="16" t="n"/>
-      <c r="G5" s="16" t="n"/>
-      <c r="H5" s="16" t="n"/>
-      <c r="I5" s="14" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="A2:D2"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.SHR_'!$A$1:$A$35</formula1>
-    </dataValidation>
-    <dataValidation sqref="I4:I5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>"True,False"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A10</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A20</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A30</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>M_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>M_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>W_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>W_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>D_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>OA</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>OM</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>_O</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>_U</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>_Z</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -46924,7 +46574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -47188,7 +46838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -47294,363 +46944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>UCITS</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MMF</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>OPEN</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>DIS</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>PRF</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>LIGHT</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>DOM</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>GOV</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>RAIF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BON</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CLOSE</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CUM</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>RTL</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>DARK</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SYNPAS</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>EEA</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>COR</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>COM</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>OAIF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MIX</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SYNPHY</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>OEA</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>MIX</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>REIT</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MIX</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NAM</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>MUL</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>SAM</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>OTH</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>HED</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>ASP</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>LOA</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>MEA</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>COM</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>AFR</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>INF</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>OTH</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>OTH</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -47914,7 +47208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -48056,7 +47350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -49013,7 +48307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -49132,7 +48426,363 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UCITS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MMF</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>PRF</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>LIGHT</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>DOM</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>GOV</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RAIF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BON</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CLOSE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CUM</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RTL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DARK</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SYNPAS</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>EEA</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OAIF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SYNPHY</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>OEA</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>REIT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>NAM</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>MUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>HED</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ASP</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LOA</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>MEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>AFR</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -49426,7 +49076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -49532,7 +49182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -49796,7 +49446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -49932,7 +49582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -50196,7 +49846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -50319,6 +49969,834 @@
     </dataValidation>
     <dataValidation sqref="G4:G5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"True,False"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>M_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>M_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>W2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>W4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>W_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>W_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>D_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>OA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>_O</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>_Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16.2" customWidth="1" min="1" max="1"/>
+    <col width="16.2" customWidth="1" min="2" max="2"/>
+    <col width="16.2" customWidth="1" min="3" max="3"/>
+    <col width="16.2" customWidth="1" min="4" max="4"/>
+    <col width="13.5" customWidth="1" min="5" max="5"/>
+    <col width="13.5" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="60" customHeight="1">
+      <c r="A1" s="6">
+        <f>HYPERLINK("#CONTENTS!A1", "CONTENTS")</f>
+        <v/>
+      </c>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="7" t="inlineStr"/>
+      <c r="F1" s="9" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>DIMENSIONS</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="9" t="n"/>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>MEASURES</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="n"/>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>TYP</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>FRQNCY</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>FLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="n"/>
+      <c r="B4" s="12" t="n"/>
+      <c r="C4" s="15" t="n"/>
+      <c r="D4" s="12" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="16" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="12" t="n"/>
+      <c r="C5" s="15" t="n"/>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation sqref="A4:A5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'ACC.LBLTY_RMNNG_'!$A$1:$A$11</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'ACC.LBLTY_RMNNG_'!$B$1:$B$35</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI_LN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI_DBT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MNGMNT_FEES</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TRNSCTNS_FEES</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TAXES</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>OTHER_PRVSNS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NO_CASH_SL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FUTURE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>A_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>M_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>M_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>W2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>W4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>W_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>W_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>D_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>OA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>OM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>_O</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>_Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16.2" customWidth="1" min="1" max="1"/>
+    <col width="16.2" customWidth="1" min="2" max="2"/>
+    <col width="16.2" customWidth="1" min="3" max="3"/>
+    <col width="16.2" customWidth="1" min="4" max="4"/>
+    <col width="13.5" customWidth="1" min="5" max="5"/>
+    <col width="14.85" customWidth="1" min="6" max="6"/>
+    <col width="13.5" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="60" customHeight="1">
+      <c r="A1" s="6">
+        <f>HYPERLINK("#CONTENTS!A1", "CONTENTS")</f>
+        <v/>
+      </c>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="7" t="inlineStr"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="9" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>DIMENSIONS</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="9" t="n"/>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>MEASURES</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="n"/>
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>IID</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>FRQNCY</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>QNTTY</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>SBSCRPTNS</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>RDMPTNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="n"/>
+      <c r="B4" s="12" t="n"/>
+      <c r="C4" s="15" t="n"/>
+      <c r="D4" s="12" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="16" t="n"/>
+      <c r="G4" s="16" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="12" t="n"/>
+      <c r="C5" s="15" t="n"/>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+      <c r="G5" s="16" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'ACC.HLDR_'!$A$1:$A$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51008,7 +51486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -51023,8 +51501,7 @@
     <col width="16.2" customWidth="1" min="2" max="2"/>
     <col width="16.2" customWidth="1" min="3" max="3"/>
     <col width="16.2" customWidth="1" min="4" max="4"/>
-    <col width="13.5" customWidth="1" min="5" max="5"/>
-    <col width="13.5" customWidth="1" min="6" max="6"/>
+    <col width="12.15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
@@ -51036,7 +51513,6 @@
       <c r="C1" s="8" t="n"/>
       <c r="D1" s="9" t="n"/>
       <c r="E1" s="7" t="inlineStr"/>
-      <c r="F1" s="9" t="n"/>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="10" t="inlineStr">
@@ -51049,20 +51525,19 @@
       <c r="D2" s="9" t="n"/>
       <c r="E2" s="11" t="inlineStr">
         <is>
-          <t>MEASURES</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="n"/>
+          <t>MEASURE</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="10" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>IID</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
@@ -51077,12 +51552,7 @@
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>STCK</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>FLS</t>
+          <t>AMNT</t>
         </is>
       </c>
     </row>
@@ -51092,7 +51562,6 @@
       <c r="C4" s="15" t="n"/>
       <c r="D4" s="12" t="n"/>
       <c r="E4" s="16" t="n"/>
-      <c r="F4" s="16" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="12" t="n"/>
@@ -51100,21 +51569,18 @@
       <c r="C5" s="15" t="n"/>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="16" t="n"/>
-      <c r="F5" s="16" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation sqref="A4:A5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.LBLTY_RMNNG_'!$A$1:$A$11</formula1>
+    <dataValidation sqref="B4:B5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'ACC.RVN_'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.LBLTY_RMNNG_'!$B$1:$B$35</formula1>
+      <formula1>'ACC.RVN_'!$B$1:$B$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51150,7 +51616,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI_LN</t>
+          <t>INTRST</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -51162,7 +51628,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AI_DBT</t>
+          <t>DVDNDS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -51174,7 +51640,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>RNTS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -51186,7 +51652,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MNGMNT_FEES</t>
+          <t>FDI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -51198,7 +51664,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TRNSCTNS_FEES</t>
+          <t>INS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -51208,11 +51674,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TAXES</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>N</t>
@@ -51220,11 +51681,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>OTHER_PRVSNS</t>
-        </is>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Q</t>
@@ -51232,11 +51688,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NO_CASH_SL</t>
-        </is>
-      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>S</t>
@@ -51244,11 +51695,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>FUTURE</t>
-        </is>
-      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>W</t>
@@ -51256,11 +51702,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>A2</t>
@@ -51441,396 +51882,6 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="16.2" customWidth="1" min="1" max="1"/>
-    <col width="16.2" customWidth="1" min="2" max="2"/>
-    <col width="16.2" customWidth="1" min="3" max="3"/>
-    <col width="16.2" customWidth="1" min="4" max="4"/>
-    <col width="13.5" customWidth="1" min="5" max="5"/>
-    <col width="14.85" customWidth="1" min="6" max="6"/>
-    <col width="13.5" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="60" customHeight="1">
-      <c r="A1" s="6">
-        <f>HYPERLINK("#CONTENTS!A1", "CONTENTS")</f>
-        <v/>
-      </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="8" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="7" t="inlineStr"/>
-      <c r="F1" s="8" t="n"/>
-      <c r="G1" s="9" t="n"/>
-    </row>
-    <row r="2" ht="60" customHeight="1">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>DIMENSIONS</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="11" t="inlineStr">
-        <is>
-          <t>MEASURES</t>
-        </is>
-      </c>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>IID</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>FRQNCY</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>QNTTY</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>SBSCRPTNS</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>RDMPTNS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="12" t="n"/>
-      <c r="C4" s="15" t="n"/>
-      <c r="D4" s="12" t="n"/>
-      <c r="E4" s="16" t="n"/>
-      <c r="F4" s="16" t="n"/>
-      <c r="G4" s="16" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="15" t="n"/>
-      <c r="D5" s="12" t="n"/>
-      <c r="E5" s="16" t="n"/>
-      <c r="F5" s="16" t="n"/>
-      <c r="G5" s="16" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.HLDR_'!$A$1:$A$35</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A10</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A20</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A30</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>M_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>M_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>W_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>W_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>D_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>OA</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>OM</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>_O</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>_U</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>_Z</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -51927,407 +51978,6 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="B4:B5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.RVN_'!$A$1:$A$6</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.RVN_'!$B$1:$B$35</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>INTRST</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DVDNDS</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RNTS</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>FDI</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>INS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>A10</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>A20</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>A30</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>A_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>M_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>M_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>W_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>W_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>D_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>OA</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>OM</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>_O</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>_U</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>_Z</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="16.2" customWidth="1" min="1" max="1"/>
-    <col width="16.2" customWidth="1" min="2" max="2"/>
-    <col width="16.2" customWidth="1" min="3" max="3"/>
-    <col width="16.2" customWidth="1" min="4" max="4"/>
-    <col width="12.15" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="60" customHeight="1">
-      <c r="A1" s="6">
-        <f>HYPERLINK("#CONTENTS!A1", "CONTENTS")</f>
-        <v/>
-      </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="8" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="7" t="inlineStr"/>
-    </row>
-    <row r="2" ht="60" customHeight="1">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>DIMENSIONS</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="11" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>IID</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>FRQNCY</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>AMNT</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="12" t="n"/>
-      <c r="C4" s="15" t="n"/>
-      <c r="D4" s="12" t="n"/>
-      <c r="E4" s="16" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="15" t="n"/>
-      <c r="D5" s="12" t="n"/>
-      <c r="E5" s="16" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation sqref="B4:B5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'ACC.EXPNS_'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation sqref="D4:D5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
@@ -52338,7 +51988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
